--- a/etc/2023-03.xlsx
+++ b/etc/2023-03.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/evgeny/Projects/tsn/electricity/etc/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0032BAE-E287-E842-BA34-DE2E974E537A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{295DE2B1-7709-2846-A488-57414250BABB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="500" windowWidth="28560" windowHeight="15000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="500" windowWidth="28560" windowHeight="10480" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ReportUm40RtuData" sheetId="1" r:id="rId1"/>
@@ -493,6 +493,9 @@
     <t>78</t>
   </si>
   <si>
+    <t>21971325</t>
+  </si>
+  <si>
     <t>79</t>
   </si>
   <si>
@@ -941,9 +944,6 @@
   </si>
   <si>
     <t>20313393</t>
-  </si>
-  <si>
-    <t>40628580</t>
   </si>
 </sst>
 </file>
@@ -977,7 +977,7 @@
       <name val="Calibri"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -998,18 +998,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor indexed="13"/>
-        <bgColor auto="1"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="11"/>
-        <bgColor auto="1"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="9"/>
         <bgColor auto="1"/>
       </patternFill>
     </fill>
@@ -1080,7 +1068,7 @@
       <alignment wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
@@ -1096,6 +1084,18 @@
     <xf numFmtId="165" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
+    <xf numFmtId="1" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="165" fontId="3" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1107,21 +1107,6 @@
     </xf>
     <xf numFmtId="165" fontId="2" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="2" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1" readingOrder="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1442,8 +1427,8 @@
   </sheetPr>
   <dimension ref="A1:J161"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A61" workbookViewId="0">
-      <selection activeCell="E78" sqref="E78:J78"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -3470,18 +3455,18 @@
       <c r="D78" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="E78" s="12" t="s">
-        <v>307</v>
-      </c>
-      <c r="F78" s="13"/>
-      <c r="G78" s="13"/>
-      <c r="H78" s="9">
+      <c r="E78" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="F78" s="5"/>
+      <c r="G78" s="5"/>
+      <c r="H78" s="6">
         <v>3125.65</v>
       </c>
-      <c r="I78" s="10">
+      <c r="I78" s="7">
         <v>1259.98</v>
       </c>
-      <c r="J78" s="11">
+      <c r="J78" s="8">
         <v>0</v>
       </c>
     </row>
@@ -3494,10 +3479,10 @@
         <v>1</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="F79" s="2"/>
       <c r="G79" s="2"/>
@@ -3520,10 +3505,10 @@
         <v>1</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="F80" s="2"/>
       <c r="G80" s="2"/>
@@ -3546,10 +3531,10 @@
         <v>1</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="F81" s="2"/>
       <c r="G81" s="2"/>
@@ -3572,10 +3557,10 @@
         <v>1</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="F82" s="2"/>
       <c r="G82" s="2"/>
@@ -3598,10 +3583,10 @@
         <v>1</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="F83" s="2"/>
       <c r="G83" s="2"/>
@@ -3624,10 +3609,10 @@
         <v>1</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="F84" s="2"/>
       <c r="G84" s="2"/>
@@ -3650,10 +3635,10 @@
         <v>1</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="F85" s="2"/>
       <c r="G85" s="2"/>
@@ -3676,10 +3661,10 @@
         <v>1</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="F86" s="2"/>
       <c r="G86" s="2"/>
@@ -3702,10 +3687,10 @@
         <v>1</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="F87" s="2"/>
       <c r="G87" s="2"/>
@@ -3728,10 +3713,10 @@
         <v>1</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="F88" s="2"/>
       <c r="G88" s="2"/>
@@ -3754,10 +3739,10 @@
         <v>1</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="F89" s="2"/>
       <c r="G89" s="2"/>
@@ -3780,10 +3765,10 @@
         <v>1</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="F90" s="2"/>
       <c r="G90" s="2"/>
@@ -3806,10 +3791,10 @@
         <v>1</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="F91" s="2"/>
       <c r="G91" s="2"/>
@@ -3832,10 +3817,10 @@
         <v>1</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="F92" s="2"/>
       <c r="G92" s="2"/>
@@ -3858,10 +3843,10 @@
         <v>1</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="F93" s="2"/>
       <c r="G93" s="2"/>
@@ -3884,10 +3869,10 @@
         <v>1</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="F94" s="2"/>
       <c r="G94" s="2"/>
@@ -3910,10 +3895,10 @@
         <v>1</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="F95" s="2"/>
       <c r="G95" s="2"/>
@@ -3936,10 +3921,10 @@
         <v>1</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="F96" s="2"/>
       <c r="G96" s="2"/>
@@ -3962,10 +3947,10 @@
         <v>1</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="F97" s="2"/>
       <c r="G97" s="2"/>
@@ -3988,10 +3973,10 @@
         <v>1</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="F98" s="2"/>
       <c r="G98" s="2"/>
@@ -4014,10 +3999,10 @@
         <v>1</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="F99" s="2"/>
       <c r="G99" s="2"/>
@@ -4040,10 +4025,10 @@
         <v>1</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="F100" s="2"/>
       <c r="G100" s="2"/>
@@ -4066,10 +4051,10 @@
         <v>1</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="F101" s="2"/>
       <c r="G101" s="2"/>
@@ -4092,10 +4077,10 @@
         <v>1</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="F102" s="2"/>
       <c r="G102" s="2"/>
@@ -4118,10 +4103,10 @@
         <v>1</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="F103" s="2"/>
       <c r="G103" s="2"/>
@@ -4144,10 +4129,10 @@
         <v>1</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="F104" s="2"/>
       <c r="G104" s="2"/>
@@ -4170,20 +4155,20 @@
         <v>1</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="F105" s="2"/>
       <c r="G105" s="2"/>
-      <c r="H105" s="5">
+      <c r="H105" s="9">
         <v>3233.0819999999999</v>
       </c>
-      <c r="I105" s="6">
+      <c r="I105" s="10">
         <v>2413.17</v>
       </c>
-      <c r="J105" s="7">
+      <c r="J105" s="11">
         <v>4100.8209999999999</v>
       </c>
     </row>
@@ -4196,10 +4181,10 @@
         <v>1</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="F106" s="2"/>
       <c r="G106" s="2"/>
@@ -4222,10 +4207,10 @@
         <v>1</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="F107" s="2"/>
       <c r="G107" s="2"/>
@@ -4248,10 +4233,10 @@
         <v>1</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="F108" s="2"/>
       <c r="G108" s="2"/>
@@ -4274,10 +4259,10 @@
         <v>1</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="F109" s="2"/>
       <c r="G109" s="2"/>
@@ -4300,10 +4285,10 @@
         <v>1</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="F110" s="2"/>
       <c r="G110" s="2"/>
@@ -4326,10 +4311,10 @@
         <v>1</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="F111" s="2"/>
       <c r="G111" s="2"/>
@@ -4352,10 +4337,10 @@
         <v>1</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="F112" s="2"/>
       <c r="G112" s="2"/>
@@ -4378,10 +4363,10 @@
         <v>1</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="F113" s="2"/>
       <c r="G113" s="2"/>
@@ -4404,10 +4389,10 @@
         <v>1</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="F114" s="2"/>
       <c r="G114" s="2"/>
@@ -4430,10 +4415,10 @@
         <v>1</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="F115" s="2"/>
       <c r="G115" s="2"/>
@@ -4456,10 +4441,10 @@
         <v>1</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="F116" s="2"/>
       <c r="G116" s="2"/>
@@ -4482,10 +4467,10 @@
         <v>1</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="F117" s="2"/>
       <c r="G117" s="2"/>
@@ -4508,10 +4493,10 @@
         <v>1</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="F118" s="2"/>
       <c r="G118" s="2"/>
@@ -4534,10 +4519,10 @@
         <v>1</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="F119" s="2"/>
       <c r="G119" s="2"/>
@@ -4560,10 +4545,10 @@
         <v>1</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="F120" s="2"/>
       <c r="G120" s="2"/>
@@ -4586,10 +4571,10 @@
         <v>1</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="F121" s="2"/>
       <c r="G121" s="2"/>
@@ -4612,10 +4597,10 @@
         <v>1</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="F122" s="2"/>
       <c r="G122" s="2"/>
@@ -4638,10 +4623,10 @@
         <v>1</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="E123" s="2" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="F123" s="2"/>
       <c r="G123" s="2"/>
@@ -4664,10 +4649,10 @@
         <v>1</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="E124" s="2" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="F124" s="2"/>
       <c r="G124" s="2"/>
@@ -4690,10 +4675,10 @@
         <v>1</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="E125" s="2" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="F125" s="2"/>
       <c r="G125" s="2"/>
@@ -4716,10 +4701,10 @@
         <v>1</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="E126" s="2" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="F126" s="2"/>
       <c r="G126" s="2"/>
@@ -4742,10 +4727,10 @@
         <v>1</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="E127" s="2" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="F127" s="2"/>
       <c r="G127" s="2"/>
@@ -4768,10 +4753,10 @@
         <v>1</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="E128" s="2" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="F128" s="2"/>
       <c r="G128" s="2"/>
@@ -4794,10 +4779,10 @@
         <v>1</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="E129" s="2" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="F129" s="2"/>
       <c r="G129" s="2"/>
@@ -4820,10 +4805,10 @@
         <v>1</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="E130" s="2" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="F130" s="2"/>
       <c r="G130" s="2"/>
@@ -4846,10 +4831,10 @@
         <v>1</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="E131" s="2" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="F131" s="2"/>
       <c r="G131" s="2"/>
@@ -4872,10 +4857,10 @@
         <v>1</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="E132" s="2" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="F132" s="2"/>
       <c r="G132" s="2"/>
@@ -4898,10 +4883,10 @@
         <v>1</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="E133" s="2" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="F133" s="2"/>
       <c r="G133" s="2"/>
@@ -4924,10 +4909,10 @@
         <v>1</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="E134" s="2" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="F134" s="2"/>
       <c r="G134" s="2"/>
@@ -4950,10 +4935,10 @@
         <v>1</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="E135" s="2" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="F135" s="2"/>
       <c r="G135" s="2"/>
@@ -4976,10 +4961,10 @@
         <v>1</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="E136" s="2" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="F136" s="2"/>
       <c r="G136" s="2"/>
@@ -5002,10 +4987,10 @@
         <v>1</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="E137" s="2" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="F137" s="2"/>
       <c r="G137" s="2"/>
@@ -5028,20 +5013,20 @@
         <v>1</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="E138" s="2" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="F138" s="2"/>
       <c r="G138" s="2"/>
-      <c r="H138" s="5">
+      <c r="H138" s="9">
         <v>3112.6329999999998</v>
       </c>
-      <c r="I138" s="6">
+      <c r="I138" s="10">
         <v>2067.61</v>
       </c>
-      <c r="J138" s="7">
+      <c r="J138" s="11">
         <v>4387.6930000000002</v>
       </c>
     </row>
@@ -5054,10 +5039,10 @@
         <v>1</v>
       </c>
       <c r="D139" s="2" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="E139" s="2" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="F139" s="2"/>
       <c r="G139" s="2"/>
@@ -5080,10 +5065,10 @@
         <v>1</v>
       </c>
       <c r="D140" s="2" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="E140" s="2" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="F140" s="2"/>
       <c r="G140" s="2"/>
@@ -5106,20 +5091,20 @@
         <v>1</v>
       </c>
       <c r="D141" s="2" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="E141" s="2" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="F141" s="2"/>
       <c r="G141" s="2"/>
-      <c r="H141" s="8">
+      <c r="H141" s="12">
         <v>3039.67</v>
       </c>
-      <c r="I141" s="8">
+      <c r="I141" s="12">
         <v>2855</v>
       </c>
-      <c r="J141" s="8">
+      <c r="J141" s="12">
         <v>4475.5</v>
       </c>
     </row>
@@ -5132,10 +5117,10 @@
         <v>1</v>
       </c>
       <c r="D142" s="2" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="E142" s="2" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="F142" s="2"/>
       <c r="G142" s="2"/>
@@ -5158,10 +5143,10 @@
         <v>1</v>
       </c>
       <c r="D143" s="2" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="E143" s="2" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="F143" s="2"/>
       <c r="G143" s="2"/>
@@ -5184,10 +5169,10 @@
         <v>1</v>
       </c>
       <c r="D144" s="2" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="E144" s="2" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="F144" s="2"/>
       <c r="G144" s="2"/>
@@ -5207,13 +5192,13 @@
         <v>0</v>
       </c>
       <c r="C145" s="2" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="D145" s="2" t="s">
         <v>2</v>
       </c>
       <c r="E145" s="2" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="F145" s="2"/>
       <c r="G145" s="2"/>
@@ -5233,13 +5218,13 @@
         <v>0</v>
       </c>
       <c r="C146" s="2" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="D146" s="2" t="s">
         <v>4</v>
       </c>
       <c r="E146" s="2" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="F146" s="2"/>
       <c r="G146" s="2"/>
@@ -5259,13 +5244,13 @@
         <v>0</v>
       </c>
       <c r="C147" s="2" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="D147" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E147" s="2" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="F147" s="2"/>
       <c r="G147" s="2"/>
@@ -5285,13 +5270,13 @@
         <v>0</v>
       </c>
       <c r="C148" s="2" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="D148" s="2" t="s">
         <v>8</v>
       </c>
       <c r="E148" s="2" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="F148" s="2"/>
       <c r="G148" s="2"/>
@@ -5311,13 +5296,13 @@
         <v>0</v>
       </c>
       <c r="C149" s="2" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="D149" s="2" t="s">
         <v>10</v>
       </c>
       <c r="E149" s="2" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="F149" s="2"/>
       <c r="G149" s="2"/>
@@ -5337,13 +5322,13 @@
         <v>0</v>
       </c>
       <c r="C150" s="2" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="D150" s="2" t="s">
         <v>12</v>
       </c>
       <c r="E150" s="2" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="F150" s="2"/>
       <c r="G150" s="2"/>
@@ -5363,13 +5348,13 @@
         <v>0</v>
       </c>
       <c r="C151" s="2" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="D151" s="2" t="s">
         <v>14</v>
       </c>
       <c r="E151" s="2" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="F151" s="2"/>
       <c r="G151" s="2"/>
@@ -5389,13 +5374,13 @@
         <v>0</v>
       </c>
       <c r="C152" s="2" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="D152" s="2" t="s">
         <v>16</v>
       </c>
       <c r="E152" s="2" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="F152" s="2"/>
       <c r="G152" s="2"/>
@@ -5415,13 +5400,13 @@
         <v>0</v>
       </c>
       <c r="C153" s="2" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="D153" s="2" t="s">
         <v>18</v>
       </c>
       <c r="E153" s="2" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="F153" s="2"/>
       <c r="G153" s="2"/>
@@ -5441,13 +5426,13 @@
         <v>0</v>
       </c>
       <c r="C154" s="2" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="D154" s="2" t="s">
         <v>20</v>
       </c>
       <c r="E154" s="2" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="F154" s="2"/>
       <c r="G154" s="2"/>
@@ -5467,13 +5452,13 @@
         <v>0</v>
       </c>
       <c r="C155" s="2" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="D155" s="2" t="s">
         <v>22</v>
       </c>
       <c r="E155" s="2" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="F155" s="2"/>
       <c r="G155" s="2"/>
@@ -5493,13 +5478,13 @@
         <v>0</v>
       </c>
       <c r="C156" s="2" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="D156" s="2" t="s">
         <v>24</v>
       </c>
       <c r="E156" s="2" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="F156" s="2"/>
       <c r="G156" s="2"/>
@@ -5519,13 +5504,13 @@
         <v>0</v>
       </c>
       <c r="C157" s="2" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="D157" s="2" t="s">
         <v>26</v>
       </c>
       <c r="E157" s="2" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="F157" s="2"/>
       <c r="G157" s="2"/>
@@ -5545,13 +5530,13 @@
         <v>0</v>
       </c>
       <c r="C158" s="2" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="D158" s="2" t="s">
         <v>28</v>
       </c>
       <c r="E158" s="2" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="F158" s="2"/>
       <c r="G158" s="2"/>
@@ -5571,13 +5556,13 @@
         <v>0</v>
       </c>
       <c r="C159" s="2" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="D159" s="2" t="s">
         <v>30</v>
       </c>
       <c r="E159" s="2" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="F159" s="2"/>
       <c r="G159" s="2"/>
@@ -5597,13 +5582,13 @@
         <v>0</v>
       </c>
       <c r="C160" s="2" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="D160" s="2" t="s">
         <v>32</v>
       </c>
       <c r="E160" s="2" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="F160" s="2"/>
       <c r="G160" s="2"/>
@@ -5623,13 +5608,13 @@
         <v>0</v>
       </c>
       <c r="C161" s="2" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="D161" s="2" t="s">
         <v>34</v>
       </c>
       <c r="E161" s="2" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="F161" s="2"/>
       <c r="G161" s="2"/>
